--- a/QueriesExcel/1.xlsx
+++ b/QueriesExcel/1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afons\Desktop\uni\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CB023-4AA2-4CF1-9D27-A5AC688CE07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2C11D-3F12-4E59-93BE-6B46F6D1EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7BD397A1-E923-4AC3-ACAC-39FB45D071A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BD397A1-E923-4AC3-ACAC-39FB45D071A0}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp706D" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -63,13 +63,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
   <si>
-    <t>Rótulos de Linha</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
   </si>
   <si>
     <t>2021</t>
@@ -174,9 +168,6 @@
     <t>Total W Disc UK</t>
   </si>
   <si>
-    <t>Rótulos de Coluna</t>
-  </si>
-  <si>
     <t>Total Total W Disc USA</t>
   </si>
   <si>
@@ -199,6 +190,15 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -699,50 +699,56 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
     </dxf>
@@ -763,7 +769,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="afonso cruz" refreshedDate="45663.78342349537" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{571801FF-53F0-4611-BF98-5E6B9E991F6F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.034050925926" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{571801FF-53F0-4611-BF98-5E6B9E991F6F}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="8">
     <cacheField name="[Order Date].[Year].[Year]" caption="Year" numFmtId="0" hierarchy="99" level="1">
@@ -813,8 +819,8 @@
         <s v="[Dim Customer].[Country].&amp;[Venezuela]" c="Venezuela"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Total W Disc USA]" caption="Total W Disc USA" numFmtId="0" hierarchy="162" level="32767"/>
-    <cacheField name="[Measures].[Total W Disc UK]" caption="Total W Disc UK" numFmtId="0" hierarchy="163" level="32767"/>
+    <cacheField name="[Measures].[Total W Disc USA]" caption="Total W Disc USA" numFmtId="0" hierarchy="163" level="32767"/>
+    <cacheField name="[Measures].[Total W Disc UK]" caption="Total W Disc UK" numFmtId="0" hierarchy="162" level="32767"/>
     <cacheField name="[Order Date].[Month Name].[Month Name]" caption="Month Name" numFmtId="0" hierarchy="89" level="1">
       <sharedItems count="6">
         <s v="[Order Date].[Month Name].&amp;[April]" c="April"/>
@@ -925,7 +931,7 @@
     <cacheHierarchy uniqueName="[Order Date].[Is Holiday]" caption="Order Date.Is Holiday" attribute="1" defaultMemberUniqueName="[Order Date].[Is Holiday].[All]" allUniqueName="[Order Date].[Is Holiday].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Is Weekend]" caption="Order Date.Is Weekend" attribute="1" defaultMemberUniqueName="[Order Date].[Is Weekend].[All]" allUniqueName="[Order Date].[Is Weekend].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Last Day Of Month Indicator]" caption="Order Date.Last Day Of Month Indicator" attribute="1" defaultMemberUniqueName="[Order Date].[Last Day Of Month Indicator].[All]" allUniqueName="[Order Date].[Last Day Of Month Indicator].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Month]" caption="Order Date.Month" attribute="1" defaultMemberUniqueName="[Order Date].[Month].[All]" allUniqueName="[Order Date].[Month].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Month]" caption="Order Date.Month" attribute="1" defaultMemberUniqueName="[Order Date].[Month].[All]" allUniqueName="[Order Date].[Month].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Month Name]" caption="Order Date.Month Name" attribute="1" defaultMemberUniqueName="[Order Date].[Month Name].[All]" allUniqueName="[Order Date].[Month Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1019,14 +1025,14 @@
     <cacheHierarchy uniqueName="[Measures].[Discount Cost UK]" caption="Discount Cost UK" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Freight USA]" caption="Freight USA" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Freight UK]" caption="Freight UK" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total W Disc UK]" caption="Total W Disc UK" measure="1" displayFolder="" measureGroup="Fact Orders" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Total W Disc USA]" caption="Total W Disc USA" measure="1" displayFolder="" measureGroup="Fact Orders" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total W Disc UK]" caption="Total W Disc UK" measure="1" displayFolder="" measureGroup="Fact Orders" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
   </cacheHierarchies>
@@ -1070,7 +1076,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1AB791A-38F9-485A-8068-64BE075986F6}" name="Tabela Dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1AB791A-38F9-485A-8068-64BE075986F6}" name="Tabela Dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A6:O116" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -1522,7 +1528,7 @@
     <dataField fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1531,7 +1537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1729,7 +1735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2054,7 +2060,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -2072,103 +2078,103 @@
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s" vm="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s" vm="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -2199,7 +2205,7 @@
         <v>54</v>
       </c>
       <c r="I11" s="5">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
@@ -2209,12 +2215,12 @@
         <v>54</v>
       </c>
       <c r="O11" s="5">
-        <v>0</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -2226,7 +2232,7 @@
         <v>75</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
@@ -2236,12 +2242,12 @@
         <v>75</v>
       </c>
       <c r="O12" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -2253,7 +2259,7 @@
         <v>96.5</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
@@ -2263,12 +2269,12 @@
         <v>96.5</v>
       </c>
       <c r="O13" s="5">
-        <v>0</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -2287,7 +2293,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -2296,7 +2302,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>484.375</v>
       </c>
       <c r="I15" s="5">
         <v>387.5</v>
@@ -2304,13 +2310,13 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>2562.5</v>
       </c>
       <c r="M15" s="5">
         <v>2050</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
+        <v>3046.875</v>
       </c>
       <c r="O15" s="5">
         <v>2437.5</v>
@@ -2318,10 +2324,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="5">
         <v>816</v>
@@ -2331,7 +2337,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1026.1875</v>
       </c>
       <c r="I16" s="5">
         <v>820.95</v>
@@ -2339,13 +2345,13 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="M16" s="5">
         <v>570</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
+        <v>2758.6875</v>
       </c>
       <c r="O16" s="5">
         <v>2206.9499999999998</v>
@@ -2353,12 +2359,12 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>1568.7688000000001</v>
       </c>
       <c r="E17" s="5">
         <v>1255.0149999999999</v>
@@ -2366,7 +2372,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>3948.75</v>
       </c>
       <c r="I17" s="5">
         <v>3159</v>
@@ -2376,7 +2382,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>5517.5187999999998</v>
       </c>
       <c r="O17" s="5">
         <v>4414.0149999999994</v>
@@ -2384,16 +2390,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C18" s="5">
         <v>504</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="E18" s="5">
         <v>2464</v>
@@ -2407,7 +2413,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
       <c r="N18" s="4">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="O18" s="5">
         <v>2968</v>
@@ -2415,12 +2421,12 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="E19" s="5">
         <v>912</v>
@@ -2428,7 +2434,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="I19" s="5">
         <v>2660</v>
@@ -2438,7 +2444,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>4465</v>
       </c>
       <c r="O19" s="5">
         <v>3572</v>
@@ -2446,16 +2452,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="C20" s="5">
         <v>472</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="E20" s="5">
         <v>1123.2</v>
@@ -2467,13 +2473,13 @@
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="M20" s="5">
         <v>1560</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>3944</v>
       </c>
       <c r="O20" s="5">
         <v>3155.2</v>
@@ -2481,7 +2487,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -2490,7 +2496,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="I21" s="5">
         <v>1596</v>
@@ -2500,7 +2506,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="O21" s="5">
         <v>1596</v>
@@ -2508,7 +2514,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4">
         <v>360</v>
       </c>
       <c r="C23" s="5">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D23" s="4">
         <v>86</v>
       </c>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
@@ -2549,36 +2555,36 @@
         <v>309.5</v>
       </c>
       <c r="K23" s="5">
-        <v>0</v>
+        <v>247.6</v>
       </c>
       <c r="L23" s="4">
         <v>1090.5</v>
       </c>
       <c r="M23" s="5">
-        <v>0</v>
+        <v>872.40000000000009</v>
       </c>
       <c r="N23" s="4">
         <v>1846</v>
       </c>
       <c r="O23" s="5">
-        <v>0</v>
+        <v>1476.8</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="4">
         <v>552</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>441.6</v>
       </c>
       <c r="D24" s="4">
         <v>88</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
@@ -2590,36 +2596,36 @@
         <v>681.8</v>
       </c>
       <c r="M24" s="5">
-        <v>0</v>
+        <v>545.44000000000005</v>
       </c>
       <c r="N24" s="4">
         <v>1321.8</v>
       </c>
       <c r="O24" s="5">
-        <v>0</v>
+        <v>1057.44</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>187.38</v>
       </c>
       <c r="C25" s="5">
-        <v>0</v>
+        <v>149.904</v>
       </c>
       <c r="D25" s="4">
         <v>896.6</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>717.28</v>
       </c>
       <c r="F25" s="4">
         <v>1167.5</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
@@ -2631,12 +2637,12 @@
         <v>2251.48</v>
       </c>
       <c r="O25" s="5">
-        <v>0</v>
+        <v>1801.184</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -2644,13 +2650,13 @@
         <v>1120</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="F26" s="4">
         <v>1088</v>
       </c>
       <c r="G26" s="5">
-        <v>0</v>
+        <v>870.4</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
@@ -2660,24 +2666,24 @@
         <v>174.5</v>
       </c>
       <c r="M26" s="5">
-        <v>0</v>
+        <v>139.6</v>
       </c>
       <c r="N26" s="4">
         <v>2382.5</v>
       </c>
       <c r="O26" s="5">
-        <v>0</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4">
         <v>570</v>
       </c>
       <c r="C27" s="5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2693,12 +2699,12 @@
         <v>570</v>
       </c>
       <c r="O27" s="5">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -2706,13 +2712,13 @@
         <v>334</v>
       </c>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>267.2</v>
       </c>
       <c r="F28" s="4">
         <v>106.6</v>
       </c>
       <c r="G28" s="5">
-        <v>0</v>
+        <v>85.28</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
@@ -2724,12 +2730,12 @@
         <v>440.6</v>
       </c>
       <c r="O28" s="5">
-        <v>0</v>
+        <v>352.48</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -2737,7 +2743,7 @@
         <v>224.6</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>179.68</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
@@ -2751,12 +2757,12 @@
         <v>224.6</v>
       </c>
       <c r="O29" s="5">
-        <v>0</v>
+        <v>179.68</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2775,7 +2781,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -2791,18 +2797,18 @@
         <v>22.5</v>
       </c>
       <c r="M31" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N31" s="4">
         <v>22.5</v>
       </c>
       <c r="O31" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -2810,13 +2816,13 @@
         <v>1750</v>
       </c>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="4">
         <v>52</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
@@ -2828,12 +2834,12 @@
         <v>1802</v>
       </c>
       <c r="O32" s="5">
-        <v>0</v>
+        <v>1441.6</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -2841,7 +2847,7 @@
         <v>825.5</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>660.4</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
@@ -2849,7 +2855,7 @@
         <v>420</v>
       </c>
       <c r="I33" s="5">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
@@ -2859,12 +2865,12 @@
         <v>1245.5</v>
       </c>
       <c r="O33" s="5">
-        <v>0</v>
+        <v>996.4</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -2878,7 +2884,7 @@
         <v>299</v>
       </c>
       <c r="K34" s="5">
-        <v>0</v>
+        <v>239.2</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="5"/>
@@ -2886,12 +2892,12 @@
         <v>299</v>
       </c>
       <c r="O34" s="5">
-        <v>0</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -2899,42 +2905,42 @@
         <v>973</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>778.4</v>
       </c>
       <c r="F35" s="4">
         <v>72</v>
       </c>
       <c r="G35" s="5">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="H35" s="4">
         <v>840</v>
       </c>
       <c r="I35" s="5">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="J35" s="4">
         <v>2166</v>
       </c>
       <c r="K35" s="5">
-        <v>0</v>
+        <v>1732.8</v>
       </c>
       <c r="L35" s="4">
         <v>35</v>
       </c>
       <c r="M35" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N35" s="4">
         <v>4086</v>
       </c>
       <c r="O35" s="5">
-        <v>0</v>
+        <v>3268.8</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -2944,7 +2950,7 @@
         <v>154</v>
       </c>
       <c r="G36" s="5">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
@@ -2956,12 +2962,12 @@
         <v>154</v>
       </c>
       <c r="O36" s="5">
-        <v>0</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -2980,12 +2986,12 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="E38" s="5">
         <v>10540</v>
@@ -2999,7 +3005,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
       <c r="N38" s="4">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="O38" s="5">
         <v>10540</v>
@@ -3007,12 +3013,12 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E39" s="5">
         <v>364</v>
@@ -3026,7 +3032,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="O39" s="5">
         <v>364</v>
@@ -3034,12 +3040,12 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>337.5</v>
       </c>
       <c r="E40" s="5">
         <v>270</v>
@@ -3053,7 +3059,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
       <c r="N40" s="4">
-        <v>0</v>
+        <v>337.5</v>
       </c>
       <c r="O40" s="5">
         <v>270</v>
@@ -3061,12 +3067,12 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E41" s="5">
         <v>14.4</v>
@@ -3080,7 +3086,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
       <c r="N41" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O41" s="5">
         <v>14.4</v>
@@ -3088,7 +3094,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -3120,13 +3126,13 @@
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="4">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M43" s="5">
         <v>122.4</v>
       </c>
       <c r="N43" s="4">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="O43" s="5">
         <v>122.4</v>
@@ -3134,7 +3140,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -3147,13 +3153,13 @@
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
       <c r="L44" s="4">
-        <v>0</v>
+        <v>1211.25</v>
       </c>
       <c r="M44" s="5">
         <v>969</v>
       </c>
       <c r="N44" s="4">
-        <v>0</v>
+        <v>1211.25</v>
       </c>
       <c r="O44" s="5">
         <v>969</v>
@@ -3161,7 +3167,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -3180,16 +3186,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>167.4</v>
       </c>
       <c r="C46" s="5">
         <v>133.91999999999999</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="E46" s="5">
         <v>547.20000000000005</v>
@@ -3199,7 +3205,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="4">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="K46" s="5">
         <v>180</v>
@@ -3207,7 +3213,7 @@
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="4">
-        <v>0</v>
+        <v>1076.4000000000001</v>
       </c>
       <c r="O46" s="5">
         <v>861.12</v>
@@ -3215,7 +3221,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -3224,7 +3230,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4">
-        <v>0</v>
+        <v>2030.25</v>
       </c>
       <c r="I47" s="5">
         <v>1624.2</v>
@@ -3234,7 +3240,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="4">
-        <v>0</v>
+        <v>2030.25</v>
       </c>
       <c r="O47" s="5">
         <v>1624.2</v>
@@ -3242,16 +3248,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="4">
-        <v>0</v>
+        <v>2001.75</v>
       </c>
       <c r="C48" s="5">
         <v>1601.4</v>
       </c>
       <c r="D48" s="4">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="E48" s="5">
         <v>1576</v>
@@ -3265,7 +3271,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="5"/>
       <c r="N48" s="4">
-        <v>0</v>
+        <v>3971.75</v>
       </c>
       <c r="O48" s="5">
         <v>3177.4</v>
@@ -3273,10 +3279,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="4">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="C49" s="5">
         <v>1144</v>
@@ -3286,13 +3292,13 @@
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="I49" s="5">
         <v>259.2</v>
       </c>
       <c r="J49" s="4">
-        <v>0</v>
+        <v>1523.125</v>
       </c>
       <c r="K49" s="5">
         <v>1218.5</v>
@@ -3300,7 +3306,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="5"/>
       <c r="N49" s="4">
-        <v>0</v>
+        <v>3277.125</v>
       </c>
       <c r="O49" s="5">
         <v>2621.7</v>
@@ -3308,10 +3314,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" s="4">
-        <v>0</v>
+        <v>2405.75</v>
       </c>
       <c r="C50" s="5">
         <v>1924.6000000000001</v>
@@ -3319,7 +3325,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="G50" s="5">
         <v>320.8</v>
@@ -3331,7 +3337,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="5"/>
       <c r="N50" s="4">
-        <v>0</v>
+        <v>2806.75</v>
       </c>
       <c r="O50" s="5">
         <v>2245.4</v>
@@ -3339,10 +3345,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="4">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C51" s="5">
         <v>364.8</v>
@@ -3352,7 +3358,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>1593.75</v>
       </c>
       <c r="I51" s="5">
         <v>1275</v>
@@ -3362,7 +3368,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="5"/>
       <c r="N51" s="4">
-        <v>0</v>
+        <v>2049.75</v>
       </c>
       <c r="O51" s="5">
         <v>1639.8</v>
@@ -3370,10 +3376,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="4">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="C52" s="5">
         <v>654.4</v>
@@ -3381,7 +3387,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="G52" s="5">
         <v>1500</v>
@@ -3389,7 +3395,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="5"/>
       <c r="J52" s="4">
-        <v>0</v>
+        <v>1195.3125</v>
       </c>
       <c r="K52" s="5">
         <v>956.25</v>
@@ -3397,7 +3403,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="5"/>
       <c r="N52" s="4">
-        <v>0</v>
+        <v>3888.3125</v>
       </c>
       <c r="O52" s="5">
         <v>3110.65</v>
@@ -3405,7 +3411,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -3424,46 +3430,46 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" s="4">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C54" s="5">
         <v>179.2</v>
       </c>
       <c r="D54" s="4">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="E54" s="5">
         <v>912</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="G54" s="5">
         <v>552</v>
       </c>
       <c r="H54" s="4">
-        <v>0</v>
+        <v>956.25</v>
       </c>
       <c r="I54" s="5">
         <v>765</v>
       </c>
       <c r="J54" s="4">
-        <v>0</v>
+        <v>733.75</v>
       </c>
       <c r="K54" s="5">
         <v>587</v>
       </c>
       <c r="L54" s="4">
-        <v>0</v>
+        <v>10012.5</v>
       </c>
       <c r="M54" s="5">
         <v>8010</v>
       </c>
       <c r="N54" s="4">
-        <v>0</v>
+        <v>13756.5</v>
       </c>
       <c r="O54" s="5">
         <v>11005.2</v>
@@ -3471,16 +3477,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" s="4">
-        <v>0</v>
+        <v>1172.7</v>
       </c>
       <c r="C55" s="5">
         <v>938.16</v>
       </c>
       <c r="D55" s="4">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E55" s="5">
         <v>364.8</v>
@@ -3488,25 +3494,25 @@
       <c r="F55" s="4"/>
       <c r="G55" s="5"/>
       <c r="H55" s="4">
-        <v>0</v>
+        <v>1952.5</v>
       </c>
       <c r="I55" s="5">
         <v>1562</v>
       </c>
       <c r="J55" s="4">
-        <v>0</v>
+        <v>1079.1561999999999</v>
       </c>
       <c r="K55" s="5">
         <v>863.32499999999993</v>
       </c>
       <c r="L55" s="4">
-        <v>0</v>
+        <v>2141.875</v>
       </c>
       <c r="M55" s="5">
         <v>1713.5</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
+        <v>6802.2312000000002</v>
       </c>
       <c r="O55" s="5">
         <v>5441.7849999999999</v>
@@ -3514,16 +3520,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="C56" s="5">
         <v>87.6</v>
       </c>
       <c r="D56" s="4">
-        <v>0</v>
+        <v>522.5</v>
       </c>
       <c r="E56" s="5">
         <v>418</v>
@@ -3531,7 +3537,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="5"/>
       <c r="H56" s="4">
-        <v>0</v>
+        <v>683.5</v>
       </c>
       <c r="I56" s="5">
         <v>546.79999999999995</v>
@@ -3539,13 +3545,13 @@
       <c r="J56" s="4"/>
       <c r="K56" s="5"/>
       <c r="L56" s="4">
-        <v>0</v>
+        <v>3900.9061999999999</v>
       </c>
       <c r="M56" s="5">
         <v>3120.7250000000004</v>
       </c>
       <c r="N56" s="4">
-        <v>0</v>
+        <v>5216.4061999999994</v>
       </c>
       <c r="O56" s="5">
         <v>4173.125</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -3562,25 +3568,25 @@
       <c r="F57" s="4"/>
       <c r="G57" s="5"/>
       <c r="H57" s="4">
-        <v>0</v>
+        <v>2468.75</v>
       </c>
       <c r="I57" s="5">
         <v>1975</v>
       </c>
       <c r="J57" s="4">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="K57" s="5">
         <v>1704</v>
       </c>
       <c r="L57" s="4">
-        <v>0</v>
+        <v>2786.7188000000001</v>
       </c>
       <c r="M57" s="5">
         <v>2229.375</v>
       </c>
       <c r="N57" s="4">
-        <v>0</v>
+        <v>7385.4688000000006</v>
       </c>
       <c r="O57" s="5">
         <v>5908.375</v>
@@ -3588,10 +3594,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" s="4">
-        <v>0</v>
+        <v>1281.375</v>
       </c>
       <c r="C58" s="5">
         <v>1025.0999999999999</v>
@@ -3601,25 +3607,25 @@
       <c r="F58" s="4"/>
       <c r="G58" s="5"/>
       <c r="H58" s="4">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="I58" s="5">
         <v>425.6</v>
       </c>
       <c r="J58" s="4">
-        <v>0</v>
+        <v>1344.375</v>
       </c>
       <c r="K58" s="5">
         <v>1075.5</v>
       </c>
       <c r="L58" s="4">
-        <v>0</v>
+        <v>213.75</v>
       </c>
       <c r="M58" s="5">
         <v>171</v>
       </c>
       <c r="N58" s="4">
-        <v>0</v>
+        <v>3371.5</v>
       </c>
       <c r="O58" s="5">
         <v>2697.2</v>
@@ -3627,10 +3633,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59" s="4">
-        <v>0</v>
+        <v>2592</v>
       </c>
       <c r="C59" s="5">
         <v>2073.6</v>
@@ -3640,7 +3646,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4">
-        <v>0</v>
+        <v>186.25</v>
       </c>
       <c r="I59" s="5">
         <v>149</v>
@@ -3650,7 +3656,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="5"/>
       <c r="N59" s="4">
-        <v>0</v>
+        <v>2778.25</v>
       </c>
       <c r="O59" s="5">
         <v>2222.6</v>
@@ -3658,12 +3664,12 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E60" s="5">
         <v>120</v>
@@ -3675,13 +3681,13 @@
       <c r="J60" s="4"/>
       <c r="K60" s="5"/>
       <c r="L60" s="4">
-        <v>0</v>
+        <v>2703</v>
       </c>
       <c r="M60" s="5">
         <v>2162.4</v>
       </c>
       <c r="N60" s="4">
-        <v>0</v>
+        <v>2853</v>
       </c>
       <c r="O60" s="5">
         <v>2282.4</v>
@@ -3689,38 +3695,38 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="G61" s="5">
         <v>165.6</v>
       </c>
       <c r="H61" s="4">
-        <v>0</v>
+        <v>977.8</v>
       </c>
       <c r="I61" s="5">
         <v>782.24</v>
       </c>
       <c r="J61" s="4">
-        <v>0</v>
+        <v>103.1344</v>
       </c>
       <c r="K61" s="5">
         <v>82.507499999999993</v>
       </c>
       <c r="L61" s="4">
-        <v>0</v>
+        <v>1819.5</v>
       </c>
       <c r="M61" s="5">
         <v>1455.6</v>
       </c>
       <c r="N61" s="4">
-        <v>0</v>
+        <v>3107.4344000000001</v>
       </c>
       <c r="O61" s="5">
         <v>2485.9475000000002</v>
@@ -3728,7 +3734,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -3747,12 +3753,12 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="4">
-        <v>0</v>
+        <v>1151.7188000000001</v>
       </c>
       <c r="E63" s="5">
         <v>921.375</v>
@@ -3766,7 +3772,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="5"/>
       <c r="N63" s="4">
-        <v>0</v>
+        <v>1151.7188000000001</v>
       </c>
       <c r="O63" s="5">
         <v>921.375</v>
@@ -3774,12 +3780,12 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E64" s="5">
         <v>520</v>
@@ -3793,7 +3799,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="5"/>
       <c r="N64" s="4">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O64" s="5">
         <v>520</v>
@@ -3801,7 +3807,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -3820,12 +3826,12 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E66" s="5">
         <v>192</v>
@@ -3839,7 +3845,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="5"/>
       <c r="N66" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O66" s="5">
         <v>192</v>
@@ -3847,7 +3853,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -3866,7 +3872,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -3880,7 +3886,7 @@
         <v>180</v>
       </c>
       <c r="K68" s="5">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="5"/>
@@ -3888,12 +3894,12 @@
         <v>180</v>
       </c>
       <c r="O68" s="5">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -3907,7 +3913,7 @@
         <v>408.45</v>
       </c>
       <c r="K69" s="5">
-        <v>0</v>
+        <v>326.76</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="5"/>
@@ -3915,12 +3921,12 @@
         <v>408.45</v>
       </c>
       <c r="O69" s="5">
-        <v>0</v>
+        <v>326.76</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -3934,7 +3940,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
@@ -3942,12 +3948,12 @@
         <v>250</v>
       </c>
       <c r="O70" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -3966,7 +3972,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -3975,7 +3981,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I72" s="5">
         <v>36</v>
@@ -3985,7 +3991,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="5"/>
       <c r="N72" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O72" s="5">
         <v>36</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -4002,7 +4008,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="5"/>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="I73" s="5">
         <v>164</v>
@@ -4012,7 +4018,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="5"/>
       <c r="N73" s="4">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="O73" s="5">
         <v>164</v>
@@ -4020,7 +4026,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -4039,7 +4045,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -4049,7 +4055,7 @@
         <v>259.3</v>
       </c>
       <c r="G75" s="5">
-        <v>0</v>
+        <v>207.44</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
@@ -4061,12 +4067,12 @@
         <v>259.3</v>
       </c>
       <c r="O75" s="5">
-        <v>0</v>
+        <v>207.44</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -4085,7 +4091,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -4098,13 +4104,13 @@
       <c r="J77" s="4"/>
       <c r="K77" s="5"/>
       <c r="L77" s="4">
-        <v>0</v>
+        <v>320.625</v>
       </c>
       <c r="M77" s="5">
         <v>256.5</v>
       </c>
       <c r="N77" s="4">
-        <v>0</v>
+        <v>320.625</v>
       </c>
       <c r="O77" s="5">
         <v>256.5</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -4125,13 +4131,13 @@
       <c r="J78" s="4"/>
       <c r="K78" s="5"/>
       <c r="L78" s="4">
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="M78" s="5">
         <v>146</v>
       </c>
       <c r="N78" s="4">
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="O78" s="5">
         <v>146</v>
@@ -4139,12 +4145,12 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>422.75</v>
       </c>
       <c r="E79" s="5">
         <v>338.2</v>
@@ -4158,7 +4164,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="5"/>
       <c r="N79" s="4">
-        <v>0</v>
+        <v>422.75</v>
       </c>
       <c r="O79" s="5">
         <v>338.2</v>
@@ -4166,7 +4172,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -4179,13 +4185,13 @@
       <c r="J80" s="4"/>
       <c r="K80" s="5"/>
       <c r="L80" s="4">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="M80" s="5">
         <v>280.8</v>
       </c>
       <c r="N80" s="4">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="O80" s="5">
         <v>280.8</v>
@@ -4193,7 +4199,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -4204,7 +4210,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="5"/>
       <c r="J81" s="4">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="K81" s="5">
         <v>155</v>
@@ -4212,7 +4218,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="5"/>
       <c r="N81" s="4">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="O81" s="5">
         <v>155</v>
@@ -4220,7 +4226,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -4239,10 +4245,10 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B83" s="4">
-        <v>0</v>
+        <v>527.4</v>
       </c>
       <c r="C83" s="5">
         <v>421.91999999999996</v>
@@ -4254,7 +4260,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="5"/>
       <c r="J83" s="4">
-        <v>0</v>
+        <v>130.78129999999999</v>
       </c>
       <c r="K83" s="5">
         <v>104.625</v>
@@ -4262,7 +4268,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="5"/>
       <c r="N83" s="4">
-        <v>0</v>
+        <v>658.18129999999996</v>
       </c>
       <c r="O83" s="5">
         <v>526.54499999999996</v>
@@ -4270,10 +4276,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B84" s="4">
-        <v>0</v>
+        <v>466.875</v>
       </c>
       <c r="C84" s="5">
         <v>373.5</v>
@@ -4285,7 +4291,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="5"/>
       <c r="J84" s="4">
-        <v>0</v>
+        <v>235.57499999999999</v>
       </c>
       <c r="K84" s="5">
         <v>188.46</v>
@@ -4293,7 +4299,7 @@
       <c r="L84" s="4"/>
       <c r="M84" s="5"/>
       <c r="N84" s="4">
-        <v>0</v>
+        <v>702.45</v>
       </c>
       <c r="O84" s="5">
         <v>561.96</v>
@@ -4301,10 +4307,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B85" s="4">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C85" s="5">
         <v>100.8</v>
@@ -4316,7 +4322,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="5"/>
       <c r="J85" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K85" s="5">
         <v>288</v>
@@ -4324,7 +4330,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="5"/>
       <c r="N85" s="4">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="O85" s="5">
         <v>388.8</v>
@@ -4332,10 +4338,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" s="4">
-        <v>0</v>
+        <v>500.625</v>
       </c>
       <c r="C86" s="5">
         <v>400.5</v>
@@ -4351,7 +4357,7 @@
       <c r="L86" s="4"/>
       <c r="M86" s="5"/>
       <c r="N86" s="4">
-        <v>0</v>
+        <v>500.625</v>
       </c>
       <c r="O86" s="5">
         <v>400.5</v>
@@ -4359,10 +4365,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B87" s="4">
-        <v>0</v>
+        <v>288.75</v>
       </c>
       <c r="C87" s="5">
         <v>231</v>
@@ -4374,7 +4380,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
       <c r="J87" s="4">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="K87" s="5">
         <v>920</v>
@@ -4382,7 +4388,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="5"/>
       <c r="N87" s="4">
-        <v>0</v>
+        <v>1438.75</v>
       </c>
       <c r="O87" s="5">
         <v>1151</v>
@@ -4390,7 +4396,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -4409,12 +4415,12 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="4">
-        <v>0</v>
+        <v>2622</v>
       </c>
       <c r="E89" s="5">
         <v>2097.6000000000004</v>
@@ -4428,7 +4434,7 @@
       <c r="L89" s="4"/>
       <c r="M89" s="5"/>
       <c r="N89" s="4">
-        <v>0</v>
+        <v>2622</v>
       </c>
       <c r="O89" s="5">
         <v>2097.6000000000004</v>
@@ -4436,7 +4442,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -4455,19 +4461,19 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91" s="4">
         <v>270</v>
       </c>
       <c r="C91" s="5">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D91" s="4">
         <v>504</v>
       </c>
       <c r="E91" s="5">
-        <v>0</v>
+        <v>403.2</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="5"/>
@@ -4475,7 +4481,7 @@
         <v>242</v>
       </c>
       <c r="I91" s="5">
-        <v>0</v>
+        <v>193.6</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="5"/>
@@ -4485,36 +4491,36 @@
         <v>1016</v>
       </c>
       <c r="O91" s="5">
-        <v>0</v>
+        <v>812.80000000000007</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B92" s="4">
         <v>138</v>
       </c>
       <c r="C92" s="5">
-        <v>0</v>
+        <v>110.4</v>
       </c>
       <c r="D92" s="4">
         <v>480</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="F92" s="4">
         <v>112</v>
       </c>
       <c r="G92" s="5">
-        <v>0</v>
+        <v>89.6</v>
       </c>
       <c r="H92" s="4">
         <v>237.5</v>
       </c>
       <c r="I92" s="5">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="5"/>
@@ -4522,18 +4528,18 @@
         <v>270</v>
       </c>
       <c r="M92" s="5">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="N92" s="4">
         <v>1237.5</v>
       </c>
       <c r="O92" s="5">
-        <v>0</v>
+        <v>990</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -4543,13 +4549,13 @@
         <v>230.4</v>
       </c>
       <c r="G93" s="5">
-        <v>0</v>
+        <v>184.32</v>
       </c>
       <c r="H93" s="4">
         <v>498</v>
       </c>
       <c r="I93" s="5">
-        <v>0</v>
+        <v>398.4</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="5"/>
@@ -4557,18 +4563,18 @@
         <v>690.5</v>
       </c>
       <c r="M93" s="5">
-        <v>0</v>
+        <v>552.4</v>
       </c>
       <c r="N93" s="4">
         <v>1418.9</v>
       </c>
       <c r="O93" s="5">
-        <v>0</v>
+        <v>1135.1199999999999</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -4578,13 +4584,13 @@
         <v>151.19999999999999</v>
       </c>
       <c r="G94" s="5">
-        <v>0</v>
+        <v>120.96</v>
       </c>
       <c r="H94" s="4">
         <v>453.6</v>
       </c>
       <c r="I94" s="5">
-        <v>0</v>
+        <v>362.88</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="5"/>
@@ -4594,12 +4600,12 @@
         <v>604.79999999999995</v>
       </c>
       <c r="O94" s="5">
-        <v>0</v>
+        <v>483.84</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -4607,7 +4613,7 @@
         <v>2079</v>
       </c>
       <c r="E95" s="5">
-        <v>0</v>
+        <v>1663.2</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="5"/>
@@ -4615,7 +4621,7 @@
         <v>590.4</v>
       </c>
       <c r="I95" s="5">
-        <v>0</v>
+        <v>472.32</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="5"/>
@@ -4625,12 +4631,12 @@
         <v>2669.4</v>
       </c>
       <c r="O95" s="5">
-        <v>0</v>
+        <v>2135.52</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -4640,13 +4646,13 @@
         <v>127.2</v>
       </c>
       <c r="G96" s="5">
-        <v>0</v>
+        <v>101.76</v>
       </c>
       <c r="H96" s="4">
         <v>1060</v>
       </c>
       <c r="I96" s="5">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="5"/>
@@ -4656,12 +4662,12 @@
         <v>1187.2</v>
       </c>
       <c r="O96" s="5">
-        <v>0</v>
+        <v>949.76</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -4671,13 +4677,13 @@
         <v>151.80000000000001</v>
       </c>
       <c r="G97" s="5">
-        <v>0</v>
+        <v>121.44</v>
       </c>
       <c r="H97" s="4">
         <v>45</v>
       </c>
       <c r="I97" s="5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="5"/>
@@ -4685,18 +4691,18 @@
         <v>1188</v>
       </c>
       <c r="M97" s="5">
-        <v>0</v>
+        <v>950.4</v>
       </c>
       <c r="N97" s="4">
         <v>1384.8</v>
       </c>
       <c r="O97" s="5">
-        <v>0</v>
+        <v>1107.8399999999999</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -4715,13 +4721,13 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B99" s="4">
         <v>65</v>
       </c>
       <c r="C99" s="5">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
@@ -4729,19 +4735,19 @@
         <v>6324</v>
       </c>
       <c r="G99" s="5">
-        <v>0</v>
+        <v>5059.2</v>
       </c>
       <c r="H99" s="4">
         <v>323</v>
       </c>
       <c r="I99" s="5">
-        <v>0</v>
+        <v>258.40000000000003</v>
       </c>
       <c r="J99" s="4">
         <v>162.75</v>
       </c>
       <c r="K99" s="5">
-        <v>0</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="5"/>
@@ -4749,24 +4755,24 @@
         <v>6874.75</v>
       </c>
       <c r="O99" s="5">
-        <v>0</v>
+        <v>5499.7999999999993</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B100" s="4">
         <v>1472</v>
       </c>
       <c r="C100" s="5">
-        <v>0</v>
+        <v>1177.5999999999999</v>
       </c>
       <c r="D100" s="4">
         <v>336</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>268.8</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="5"/>
@@ -4774,13 +4780,13 @@
         <v>1265.5999999999999</v>
       </c>
       <c r="I100" s="5">
-        <v>0</v>
+        <v>1012.48</v>
       </c>
       <c r="J100" s="4">
         <v>155</v>
       </c>
       <c r="K100" s="5">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="5"/>
@@ -4788,24 +4794,24 @@
         <v>3228.6</v>
       </c>
       <c r="O100" s="5">
-        <v>0</v>
+        <v>2582.88</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101" s="4">
-        <v>258</v>
+        <v>2451.75</v>
       </c>
       <c r="C101" s="5">
-        <v>1755</v>
+        <v>1961.4</v>
       </c>
       <c r="D101" s="4">
         <v>249</v>
       </c>
       <c r="E101" s="5">
-        <v>0</v>
+        <v>199.2</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="5"/>
@@ -4813,22 +4819,22 @@
         <v>146</v>
       </c>
       <c r="I101" s="5">
-        <v>0</v>
+        <v>116.8</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="5"/>
       <c r="L101" s="4"/>
       <c r="M101" s="5"/>
       <c r="N101" s="4">
-        <v>653</v>
+        <v>2846.75</v>
       </c>
       <c r="O101" s="5">
-        <v>1755</v>
+        <v>2277.4</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -4836,66 +4842,66 @@
         <v>1072</v>
       </c>
       <c r="E102" s="5">
-        <v>0</v>
+        <v>857.6</v>
       </c>
       <c r="F102" s="4">
         <v>2640</v>
       </c>
       <c r="G102" s="5">
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="H102" s="4">
         <v>1020</v>
       </c>
       <c r="I102" s="5">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="J102" s="4">
         <v>1310.2</v>
       </c>
       <c r="K102" s="5">
-        <v>0</v>
+        <v>1048.1599999999999</v>
       </c>
       <c r="L102" s="4">
         <v>210</v>
       </c>
       <c r="M102" s="5">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N102" s="4">
         <v>6252.2</v>
       </c>
       <c r="O102" s="5">
-        <v>0</v>
+        <v>5001.76</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103" s="4">
         <v>1216</v>
       </c>
       <c r="C103" s="5">
-        <v>0</v>
+        <v>972.8</v>
       </c>
       <c r="D103" s="4">
         <v>2128</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1702.4</v>
       </c>
       <c r="F103" s="4">
         <v>798</v>
       </c>
       <c r="G103" s="5">
-        <v>0</v>
+        <v>638.4</v>
       </c>
       <c r="H103" s="4">
         <v>1710</v>
       </c>
       <c r="I103" s="5">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="5"/>
@@ -4905,12 +4911,12 @@
         <v>5852</v>
       </c>
       <c r="O103" s="5">
-        <v>0</v>
+        <v>4681.6000000000004</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -4918,25 +4924,25 @@
         <v>298.39999999999998</v>
       </c>
       <c r="E104" s="5">
-        <v>0</v>
+        <v>238.72000000000003</v>
       </c>
       <c r="F104" s="4">
         <v>733.6</v>
       </c>
       <c r="G104" s="5">
-        <v>0</v>
+        <v>586.88</v>
       </c>
       <c r="H104" s="4">
         <v>4456.4399999999996</v>
       </c>
       <c r="I104" s="5">
-        <v>0</v>
+        <v>3565.152</v>
       </c>
       <c r="J104" s="4">
         <v>380</v>
       </c>
       <c r="K104" s="5">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="5"/>
@@ -4944,18 +4950,18 @@
         <v>5868.44</v>
       </c>
       <c r="O104" s="5">
-        <v>0</v>
+        <v>4694.7520000000004</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B105" s="4">
         <v>1951.5</v>
       </c>
       <c r="C105" s="5">
-        <v>0</v>
+        <v>1561.2</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5"/>
@@ -4965,7 +4971,7 @@
         <v>62.75</v>
       </c>
       <c r="I105" s="5">
-        <v>0</v>
+        <v>50.2</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="5"/>
@@ -4975,12 +4981,12 @@
         <v>2014.25</v>
       </c>
       <c r="O105" s="5">
-        <v>0</v>
+        <v>1611.4</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -4988,25 +4994,25 @@
         <v>372.6</v>
       </c>
       <c r="E106" s="5">
-        <v>0</v>
+        <v>298.08</v>
       </c>
       <c r="F106" s="4">
         <v>147</v>
       </c>
       <c r="G106" s="5">
-        <v>0</v>
+        <v>117.6</v>
       </c>
       <c r="H106" s="4">
         <v>771.6</v>
       </c>
       <c r="I106" s="5">
-        <v>0</v>
+        <v>617.28</v>
       </c>
       <c r="J106" s="4">
         <v>191</v>
       </c>
       <c r="K106" s="5">
-        <v>0</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="5"/>
@@ -5014,12 +5020,12 @@
         <v>1482.2</v>
       </c>
       <c r="O106" s="5">
-        <v>0</v>
+        <v>1185.76</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -5038,7 +5044,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -5048,13 +5054,13 @@
         <v>144</v>
       </c>
       <c r="G108" s="5">
-        <v>0</v>
+        <v>115.2</v>
       </c>
       <c r="H108" s="4">
         <v>900</v>
       </c>
       <c r="I108" s="5">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="5"/>
@@ -5062,18 +5068,18 @@
         <v>232.5</v>
       </c>
       <c r="M108" s="5">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="N108" s="4">
         <v>1276.5</v>
       </c>
       <c r="O108" s="5">
-        <v>0</v>
+        <v>1021.2</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -5087,7 +5093,7 @@
         <v>400</v>
       </c>
       <c r="K109" s="5">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="5"/>
@@ -5095,18 +5101,18 @@
         <v>400</v>
       </c>
       <c r="O109" s="5">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B110" s="4">
         <v>240</v>
       </c>
       <c r="C110" s="5">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="5"/>
@@ -5116,7 +5122,7 @@
         <v>950</v>
       </c>
       <c r="I110" s="5">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="5"/>
@@ -5126,12 +5132,12 @@
         <v>1190</v>
       </c>
       <c r="O110" s="5">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -5141,7 +5147,7 @@
         <v>84</v>
       </c>
       <c r="G111" s="5">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="5"/>
@@ -5151,18 +5157,18 @@
         <v>1617</v>
       </c>
       <c r="M111" s="5">
-        <v>0</v>
+        <v>1293.5999999999999</v>
       </c>
       <c r="N111" s="4">
         <v>1701</v>
       </c>
       <c r="O111" s="5">
-        <v>0</v>
+        <v>1360.8</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -5178,24 +5184,24 @@
         <v>536</v>
       </c>
       <c r="M112" s="5">
-        <v>0</v>
+        <v>428.8</v>
       </c>
       <c r="N112" s="4">
         <v>536</v>
       </c>
       <c r="O112" s="5">
-        <v>0</v>
+        <v>428.8</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113" s="4">
         <v>864</v>
       </c>
       <c r="C113" s="5">
-        <v>0</v>
+        <v>691.2</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="5"/>
@@ -5203,7 +5209,7 @@
         <v>36.4</v>
       </c>
       <c r="G113" s="5">
-        <v>0</v>
+        <v>29.12</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="5"/>
@@ -5215,12 +5221,12 @@
         <v>900.4</v>
       </c>
       <c r="O113" s="5">
-        <v>0</v>
+        <v>720.32</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -5230,7 +5236,7 @@
         <v>1188</v>
       </c>
       <c r="G114" s="5">
-        <v>0</v>
+        <v>950.4</v>
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="5"/>
@@ -5242,18 +5248,18 @@
         <v>1188</v>
       </c>
       <c r="O114" s="5">
-        <v>0</v>
+        <v>950.4</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B115" s="4">
         <v>434.6</v>
       </c>
       <c r="C115" s="5">
-        <v>0</v>
+        <v>347.68</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
@@ -5269,54 +5275,54 @@
         <v>434.6</v>
       </c>
       <c r="O115" s="5">
-        <v>0</v>
+        <v>347.68</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B116" s="4">
-        <v>8578.48</v>
+        <v>27580.355</v>
       </c>
       <c r="C116" s="5">
-        <v>15201.499999999996</v>
+        <v>22064.284</v>
       </c>
       <c r="D116" s="4">
-        <v>13816.7</v>
+        <v>45003.937600000005</v>
       </c>
       <c r="E116" s="5">
-        <v>24949.79</v>
+        <v>36003.15</v>
       </c>
       <c r="F116" s="4">
-        <v>15767.000000000002</v>
+        <v>18940</v>
       </c>
       <c r="G116" s="5">
-        <v>2538.4</v>
+        <v>15152.000000000002</v>
       </c>
       <c r="H116" s="4">
-        <v>16217.39</v>
+        <v>38951.752500000002</v>
       </c>
       <c r="I116" s="5">
-        <v>18187.490000000002</v>
+        <v>31161.402000000002</v>
       </c>
       <c r="J116" s="4">
-        <v>6211.9</v>
+        <v>16615.859400000001</v>
       </c>
       <c r="K116" s="5">
-        <v>8323.1674999999996</v>
+        <v>13292.687500000002</v>
       </c>
       <c r="L116" s="4">
-        <v>6748.3</v>
+        <v>37769.925000000003</v>
       </c>
       <c r="M116" s="5">
-        <v>24817.3</v>
+        <v>30215.939999999995</v>
       </c>
       <c r="N116" s="4">
-        <v>67339.77</v>
+        <v>184861.82950000005</v>
       </c>
       <c r="O116" s="5">
-        <v>94017.647499999977</v>
+        <v>147889.46350000001</v>
       </c>
     </row>
   </sheetData>
